--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3655.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3655.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.256681862350523</v>
+        <v>1.710608243942261</v>
       </c>
       <c r="B1">
-        <v>1.441390967514175</v>
+        <v>1.732973694801331</v>
       </c>
       <c r="C1">
-        <v>1.809340918019987</v>
+        <v>1.577597260475159</v>
       </c>
       <c r="D1">
-        <v>3.755975232092704</v>
+        <v>1.201207876205444</v>
       </c>
       <c r="E1">
-        <v>7.006712803998427</v>
+        <v>0.7166420817375183</v>
       </c>
     </row>
   </sheetData>
